--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.540155</v>
+        <v>0.342322</v>
       </c>
       <c r="H2">
-        <v>4.620465</v>
+        <v>1.026966</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7050016666666666</v>
+        <v>1.414593</v>
       </c>
       <c r="N2">
-        <v>2.115005</v>
+        <v>4.243779</v>
       </c>
       <c r="O2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q2">
-        <v>1.085811841925</v>
+        <v>0.484246304946</v>
       </c>
       <c r="R2">
-        <v>9.772306577325001</v>
+        <v>4.358216744513999</v>
       </c>
       <c r="S2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="T2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.540155</v>
+        <v>0.342322</v>
       </c>
       <c r="H3">
-        <v>4.620465</v>
+        <v>1.026966</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +620,22 @@
         <v>7.012461999999999</v>
       </c>
       <c r="O3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q3">
-        <v>3.60009280387</v>
+        <v>0.8001733389213332</v>
       </c>
       <c r="R3">
-        <v>32.40083523483</v>
+        <v>7.201560050291998</v>
       </c>
       <c r="S3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="T3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.540155</v>
+        <v>0.342322</v>
       </c>
       <c r="H4">
-        <v>4.620465</v>
+        <v>1.026966</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,90 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2112013333333334</v>
+        <v>0.314161</v>
       </c>
       <c r="N4">
-        <v>0.6336040000000001</v>
+        <v>0.942483</v>
       </c>
       <c r="O4">
-        <v>0.0647695589083904</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P4">
-        <v>0.06476955890839041</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q4">
-        <v>0.3252827895400001</v>
+        <v>0.107544221842</v>
       </c>
       <c r="R4">
-        <v>2.927545105860001</v>
+        <v>0.9678979965779998</v>
       </c>
       <c r="S4">
-        <v>0.0647695589083904</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="T4">
-        <v>0.06476955890839041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>1.540155</v>
-      </c>
-      <c r="H5">
-        <v>4.620465</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.007121333333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.021364</v>
-      </c>
-      <c r="O5">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="P5">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="Q5">
-        <v>0.01096795714</v>
-      </c>
-      <c r="R5">
-        <v>0.09871161426</v>
-      </c>
-      <c r="S5">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="T5">
-        <v>0.002183914332167809</v>
+        <v>0.07726078563626819</v>
       </c>
     </row>
   </sheetData>
